--- a/data/trans_bre/P29A-Dificultad-trans_bre.xlsx
+++ b/data/trans_bre/P29A-Dificultad-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-36.26204627006011</v>
+        <v>-36.29782501435275</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-36.78092964821519</v>
+        <v>-36.47812769954</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-29.73273950950591</v>
+        <v>-30.11126550921597</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-30.11793874983086</v>
+        <v>-29.97970933208799</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.6898928078951464</v>
+        <v>-0.6931602959856308</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.6550460594626986</v>
+        <v>-0.6504374318175741</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.5673928857075522</v>
+        <v>-0.5668381533112916</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.6353719599566068</v>
+        <v>-0.6375082069103379</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-26.69762536294886</v>
+        <v>-26.13968153039552</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-28.49341403199708</v>
+        <v>-28.00229530610557</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-22.14204754781164</v>
+        <v>-22.00422451955676</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>-19.14685342514735</v>
+        <v>-18.885780375905</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>-0.5677406019830123</v>
+        <v>-0.566673449002721</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>-0.5422064457795577</v>
+        <v>-0.5417955224302968</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>-0.4548351601770987</v>
+        <v>-0.4457329925780162</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>-0.4812547766927128</v>
+        <v>-0.475513220199524</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>-27.41542899396957</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>-25.73445985084427</v>
+        <v>-25.73445985084428</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>-0.6120135956367453</v>
@@ -749,7 +749,7 @@
         <v>-0.4728782602788283</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>-0.5389901004777344</v>
+        <v>-0.5389901004777345</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-38.53548031200287</v>
+        <v>-38.27105824729858</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-34.63608844731328</v>
+        <v>-34.88294615268717</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-32.05496783607599</v>
+        <v>-31.7599015446421</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-30.01497885944306</v>
+        <v>-30.60370721371732</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.6619227421619274</v>
+        <v>-0.6596063467371653</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.5903581629739499</v>
+        <v>-0.5939081969632797</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.5310241484430426</v>
+        <v>-0.5314087036094266</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.5943465014495288</v>
+        <v>-0.6008032103791289</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>-30.04037256090307</v>
+        <v>-30.15040592128363</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>-25.90381119062282</v>
+        <v>-26.55711591535949</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>-23.0657155376254</v>
+        <v>-23.15512115154627</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>-21.09993315710052</v>
+        <v>-21.27453544260523</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>-0.5604926960047255</v>
+        <v>-0.5624637977022073</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.4757573345818617</v>
+        <v>-0.4870296391126923</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>-0.4139990263809237</v>
+        <v>-0.4158073607396401</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>-0.4711218007586044</v>
+        <v>-0.4738580084553143</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>-25.91761729080265</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>-22.87493525463372</v>
+        <v>-22.87493525463371</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>-0.4734935127954786</v>
@@ -849,7 +849,7 @@
         <v>-0.4143974272850247</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>-0.4728750158017697</v>
+        <v>-0.4728750158017694</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-30.9535381044703</v>
+        <v>-30.81238602541907</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-35.9030554271565</v>
+        <v>-35.88388767724056</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-31.2551942439941</v>
+        <v>-30.92439789757116</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-27.0121343630111</v>
+        <v>-26.78593843212713</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.5318319187084989</v>
+        <v>-0.5256151322446572</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.5912559664938637</v>
+        <v>-0.5880954331110305</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.4818160383160111</v>
+        <v>-0.476330772003194</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.534416412449501</v>
+        <v>-0.5257700689616969</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-22.69137025247406</v>
+        <v>-21.91730149464975</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-26.39966100982113</v>
+        <v>-26.5022512764732</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-21.25650054881855</v>
+        <v>-21.08582271279998</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>-19.24161657789541</v>
+        <v>-18.95058466037047</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>-0.4159865858109905</v>
+        <v>-0.4051998661552654</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>-0.468850836622382</v>
+        <v>-0.4705396438305741</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>-0.3495831340557709</v>
+        <v>-0.3445637840170259</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>-0.41520671042059</v>
+        <v>-0.4082488565662916</v>
       </c>
     </row>
     <row r="13">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-28.98674925808837</v>
+        <v>-29.34422216939063</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-29.99546879488806</v>
+        <v>-30.32733753008054</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-31.34711868721796</v>
+        <v>-31.13048271491985</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-24.68590838378165</v>
+        <v>-24.51795193528437</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.4729993299949982</v>
+        <v>-0.4771329411353578</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.5086682907653123</v>
+        <v>-0.5106609315444987</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.4932558183751701</v>
+        <v>-0.4815502812518964</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.471928481200345</v>
+        <v>-0.4657103630647668</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>-15.01648661783581</v>
+        <v>-15.495018862258</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>-16.96743076533441</v>
+        <v>-16.89836582785592</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>-18.12656668530893</v>
+        <v>-18.37537601209894</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>-15.40681559232364</v>
+        <v>-15.28807708380588</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.2742316657130727</v>
+        <v>-0.2796639664009301</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.3163192359036558</v>
+        <v>-0.3106954797511011</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>-0.3122105745406951</v>
+        <v>-0.3144885428031696</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.324699504923563</v>
+        <v>-0.3198848949215451</v>
       </c>
     </row>
     <row r="16">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-33.0792407450803</v>
+        <v>-33.01360296794306</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-33.01106179650045</v>
+        <v>-32.78111013032673</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-29.10268109689378</v>
+        <v>-28.78813749138224</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-25.85117127008414</v>
+        <v>-25.98879987288113</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.5861869339671448</v>
+        <v>-0.5838053303661834</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.5738515904243172</v>
+        <v>-0.5725755846486515</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.4969655224375515</v>
+        <v>-0.4944668868906227</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.5222485466442575</v>
+        <v>-0.5271001648055309</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-28.35638171693958</v>
+        <v>-28.33022840026005</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-28.26566227117142</v>
+        <v>-28.00701692422464</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-24.21888345736328</v>
+        <v>-24.30906580042036</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>-21.17038637880263</v>
+        <v>-21.39293468842035</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>-0.5219746015770735</v>
+        <v>-0.5216493163995315</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>-0.51404006301155</v>
+        <v>-0.510946339927932</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>-0.4291010341189043</v>
+        <v>-0.4324992772179738</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>-0.4562970637673224</v>
+        <v>-0.4581711698958194</v>
       </c>
     </row>
     <row r="19">
